--- a/Team-Data/2014-15/3-30-2014-15.xlsx
+++ b/Team-Data/2014-15/3-30-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E2" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F2" t="n">
         <v>18</v>
       </c>
       <c r="G2" t="n">
-        <v>0.757</v>
+        <v>0.753</v>
       </c>
       <c r="H2" t="n">
         <v>48.1</v>
@@ -693,19 +760,19 @@
         <v>10</v>
       </c>
       <c r="M2" t="n">
-        <v>26</v>
+        <v>25.9</v>
       </c>
       <c r="N2" t="n">
-        <v>0.385</v>
+        <v>0.386</v>
       </c>
       <c r="O2" t="n">
         <v>16.8</v>
       </c>
       <c r="P2" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.78</v>
+        <v>0.779</v>
       </c>
       <c r="R2" t="n">
         <v>8.6</v>
@@ -714,16 +781,16 @@
         <v>31.8</v>
       </c>
       <c r="T2" t="n">
-        <v>40.5</v>
+        <v>40.4</v>
       </c>
       <c r="U2" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="V2" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W2" t="n">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="X2" t="n">
         <v>4.7</v>
@@ -741,10 +808,10 @@
         <v>102.4</v>
       </c>
       <c r="AC2" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="AD2" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AE2" t="n">
         <v>2</v>
@@ -756,7 +823,7 @@
         <v>2</v>
       </c>
       <c r="AH2" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AI2" t="n">
         <v>12</v>
@@ -807,13 +874,13 @@
         <v>13</v>
       </c>
       <c r="AY2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ2" t="n">
         <v>1</v>
       </c>
       <c r="BA2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB2" t="n">
         <v>11</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-30-2014-15</t>
+          <t>2015-03-30</t>
         </is>
       </c>
     </row>
@@ -848,28 +915,28 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E3" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F3" t="n">
         <v>41</v>
       </c>
       <c r="G3" t="n">
-        <v>0.446</v>
+        <v>0.438</v>
       </c>
       <c r="H3" t="n">
         <v>48.5</v>
       </c>
       <c r="I3" t="n">
-        <v>38.8</v>
+        <v>38.7</v>
       </c>
       <c r="J3" t="n">
         <v>87.90000000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>0.441</v>
+        <v>0.44</v>
       </c>
       <c r="L3" t="n">
         <v>8</v>
@@ -881,7 +948,7 @@
         <v>0.327</v>
       </c>
       <c r="O3" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="P3" t="n">
         <v>20.5</v>
@@ -893,13 +960,13 @@
         <v>11.2</v>
       </c>
       <c r="S3" t="n">
-        <v>32.8</v>
+        <v>32.9</v>
       </c>
       <c r="T3" t="n">
-        <v>44</v>
+        <v>44.1</v>
       </c>
       <c r="U3" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="V3" t="n">
         <v>13.9</v>
@@ -908,7 +975,7 @@
         <v>8</v>
       </c>
       <c r="X3" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="Y3" t="n">
         <v>5.3</v>
@@ -920,13 +987,13 @@
         <v>18.7</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.9</v>
+        <v>100.7</v>
       </c>
       <c r="AC3" t="n">
-        <v>-0.8</v>
+        <v>-0.9</v>
       </c>
       <c r="AD3" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AE3" t="n">
         <v>18</v>
@@ -935,7 +1002,7 @@
         <v>19</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH3" t="n">
         <v>12</v>
@@ -965,7 +1032,7 @@
         <v>27</v>
       </c>
       <c r="AQ3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR3" t="n">
         <v>11</v>
@@ -980,25 +1047,25 @@
         <v>5</v>
       </c>
       <c r="AV3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AW3" t="n">
         <v>11</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>12</v>
       </c>
       <c r="AX3" t="n">
         <v>30</v>
       </c>
       <c r="AY3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA3" t="n">
         <v>28</v>
       </c>
       <c r="BB3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BC3" t="n">
         <v>19</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-30-2014-15</t>
+          <t>2015-03-30</t>
         </is>
       </c>
     </row>
@@ -1108,16 +1175,16 @@
         <v>-3.1</v>
       </c>
       <c r="AD4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE4" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AF4" t="n">
         <v>18</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AH4" t="n">
         <v>2</v>
@@ -1132,7 +1199,7 @@
         <v>16</v>
       </c>
       <c r="AL4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM4" t="n">
         <v>20</v>
@@ -1141,13 +1208,13 @@
         <v>28</v>
       </c>
       <c r="AO4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AP4" t="n">
         <v>17</v>
       </c>
       <c r="AQ4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR4" t="n">
         <v>24</v>
@@ -1168,7 +1235,7 @@
         <v>24</v>
       </c>
       <c r="AX4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AY4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-30-2014-15</t>
+          <t>2015-03-30</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E5" t="n">
         <v>31</v>
       </c>
       <c r="F5" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G5" t="n">
-        <v>0.425</v>
+        <v>0.431</v>
       </c>
       <c r="H5" t="n">
         <v>48.6</v>
@@ -1233,34 +1300,34 @@
         <v>84.8</v>
       </c>
       <c r="K5" t="n">
-        <v>0.424</v>
+        <v>0.423</v>
       </c>
       <c r="L5" t="n">
         <v>5.9</v>
       </c>
       <c r="M5" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="N5" t="n">
-        <v>0.317</v>
+        <v>0.318</v>
       </c>
       <c r="O5" t="n">
         <v>17.3</v>
       </c>
       <c r="P5" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.749</v>
+        <v>0.748</v>
       </c>
       <c r="R5" t="n">
         <v>10</v>
       </c>
       <c r="S5" t="n">
-        <v>34.3</v>
+        <v>34.4</v>
       </c>
       <c r="T5" t="n">
-        <v>44.3</v>
+        <v>44.4</v>
       </c>
       <c r="U5" t="n">
         <v>20.6</v>
@@ -1275,7 +1342,7 @@
         <v>5.6</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Z5" t="n">
         <v>18.5</v>
@@ -1284,25 +1351,25 @@
         <v>21</v>
       </c>
       <c r="AB5" t="n">
-        <v>95.09999999999999</v>
+        <v>95</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2.3</v>
+        <v>-2.1</v>
       </c>
       <c r="AD5" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AE5" t="n">
         <v>22</v>
       </c>
       <c r="AF5" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AG5" t="n">
         <v>22</v>
       </c>
       <c r="AH5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI5" t="n">
         <v>26</v>
@@ -1329,19 +1396,19 @@
         <v>14</v>
       </c>
       <c r="AQ5" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AR5" t="n">
         <v>25</v>
       </c>
       <c r="AS5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT5" t="n">
         <v>9</v>
       </c>
       <c r="AU5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AV5" t="n">
         <v>1</v>
@@ -1353,7 +1420,7 @@
         <v>7</v>
       </c>
       <c r="AY5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ5" t="n">
         <v>5</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-30-2014-15</t>
+          <t>2015-03-30</t>
         </is>
       </c>
     </row>
@@ -1472,16 +1539,16 @@
         <v>2.7</v>
       </c>
       <c r="AD6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE6" t="n">
         <v>9</v>
       </c>
       <c r="AF6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH6" t="n">
         <v>7</v>
@@ -1514,7 +1581,7 @@
         <v>3</v>
       </c>
       <c r="AR6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS6" t="n">
         <v>6</v>
@@ -1526,7 +1593,7 @@
         <v>13</v>
       </c>
       <c r="AV6" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AW6" t="n">
         <v>29</v>
@@ -1535,7 +1602,7 @@
         <v>5</v>
       </c>
       <c r="AY6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ6" t="n">
         <v>3</v>
@@ -1544,7 +1611,7 @@
         <v>6</v>
       </c>
       <c r="BB6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC6" t="n">
         <v>11</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-30-2014-15</t>
+          <t>2015-03-30</t>
         </is>
       </c>
     </row>
@@ -1663,7 +1730,7 @@
         <v>8</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH7" t="n">
         <v>25</v>
@@ -1675,7 +1742,7 @@
         <v>24</v>
       </c>
       <c r="AK7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL7" t="n">
         <v>6</v>
@@ -1684,7 +1751,7 @@
         <v>4</v>
       </c>
       <c r="AN7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO7" t="n">
         <v>6</v>
@@ -1696,7 +1763,7 @@
         <v>16</v>
       </c>
       <c r="AR7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS7" t="n">
         <v>19</v>
@@ -1705,7 +1772,7 @@
         <v>19</v>
       </c>
       <c r="AU7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV7" t="n">
         <v>13</v>
@@ -1717,7 +1784,7 @@
         <v>26</v>
       </c>
       <c r="AY7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ7" t="n">
         <v>4</v>
@@ -1726,7 +1793,7 @@
         <v>10</v>
       </c>
       <c r="BB7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BC7" t="n">
         <v>5</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-30-2014-15</t>
+          <t>2015-03-30</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E8" t="n">
         <v>45</v>
       </c>
       <c r="F8" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G8" t="n">
-        <v>0.616</v>
+        <v>0.608</v>
       </c>
       <c r="H8" t="n">
         <v>48.4</v>
@@ -1776,49 +1843,49 @@
         <v>39.3</v>
       </c>
       <c r="J8" t="n">
-        <v>85.59999999999999</v>
+        <v>85.5</v>
       </c>
       <c r="K8" t="n">
-        <v>0.459</v>
+        <v>0.46</v>
       </c>
       <c r="L8" t="n">
         <v>9.1</v>
       </c>
       <c r="M8" t="n">
-        <v>25.9</v>
+        <v>25.8</v>
       </c>
       <c r="N8" t="n">
-        <v>0.352</v>
+        <v>0.353</v>
       </c>
       <c r="O8" t="n">
         <v>16.4</v>
       </c>
       <c r="P8" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.751</v>
+        <v>0.752</v>
       </c>
       <c r="R8" t="n">
         <v>10.5</v>
       </c>
       <c r="S8" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="T8" t="n">
-        <v>42.2</v>
+        <v>42.1</v>
       </c>
       <c r="U8" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="V8" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="W8" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="X8" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y8" t="n">
         <v>3.9</v>
@@ -1830,13 +1897,13 @@
         <v>21.9</v>
       </c>
       <c r="AB8" t="n">
-        <v>104.2</v>
+        <v>104.1</v>
       </c>
       <c r="AC8" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="AD8" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="AE8" t="n">
         <v>9</v>
@@ -1848,7 +1915,7 @@
         <v>9</v>
       </c>
       <c r="AH8" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AI8" t="n">
         <v>3</v>
@@ -1881,10 +1948,10 @@
         <v>19</v>
       </c>
       <c r="AS8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AU8" t="n">
         <v>8</v>
@@ -1896,7 +1963,7 @@
         <v>8</v>
       </c>
       <c r="AX8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY8" t="n">
         <v>4</v>
@@ -1908,10 +1975,10 @@
         <v>2</v>
       </c>
       <c r="BB8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-30-2014-15</t>
+          <t>2015-03-30</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>-3.3</v>
       </c>
       <c r="AD9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE9" t="n">
         <v>23</v>
@@ -2051,7 +2118,7 @@
         <v>27</v>
       </c>
       <c r="AO9" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AP9" t="n">
         <v>7</v>
@@ -2063,7 +2130,7 @@
         <v>3</v>
       </c>
       <c r="AS9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT9" t="n">
         <v>5</v>
@@ -2081,7 +2148,7 @@
         <v>14</v>
       </c>
       <c r="AY9" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AZ9" t="n">
         <v>30</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-30-2014-15</t>
+          <t>2015-03-30</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-1.3</v>
       </c>
       <c r="AD10" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
@@ -2263,7 +2330,7 @@
         <v>16</v>
       </c>
       <c r="AY10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ10" t="n">
         <v>7</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-30-2014-15</t>
+          <t>2015-03-30</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>10.9</v>
       </c>
       <c r="AD11" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE11" t="n">
         <v>1</v>
@@ -2421,13 +2488,13 @@
         <v>26</v>
       </c>
       <c r="AQ11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR11" t="n">
         <v>23</v>
       </c>
       <c r="AS11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT11" t="n">
         <v>6</v>
@@ -2439,10 +2506,10 @@
         <v>19</v>
       </c>
       <c r="AW11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY11" t="n">
         <v>2</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-30-2014-15</t>
+          <t>2015-03-30</t>
         </is>
       </c>
     </row>
@@ -2489,13 +2556,13 @@
         <v>73</v>
       </c>
       <c r="E12" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G12" t="n">
-        <v>0.671</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="H12" t="n">
         <v>48.3</v>
@@ -2504,28 +2571,28 @@
         <v>37</v>
       </c>
       <c r="J12" t="n">
-        <v>83.90000000000001</v>
+        <v>83.8</v>
       </c>
       <c r="K12" t="n">
         <v>0.441</v>
       </c>
       <c r="L12" t="n">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="M12" t="n">
-        <v>33.1</v>
+        <v>33.2</v>
       </c>
       <c r="N12" t="n">
-        <v>0.345</v>
+        <v>0.347</v>
       </c>
       <c r="O12" t="n">
-        <v>17.8</v>
+        <v>18</v>
       </c>
       <c r="P12" t="n">
-        <v>24.5</v>
+        <v>24.8</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.724</v>
+        <v>0.725</v>
       </c>
       <c r="R12" t="n">
         <v>11.8</v>
@@ -2552,28 +2619,28 @@
         <v>5.4</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AB12" t="n">
-        <v>103.2</v>
+        <v>103.4</v>
       </c>
       <c r="AC12" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE12" t="n">
         <v>3</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>4</v>
       </c>
       <c r="AF12" t="n">
         <v>3</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH12" t="n">
         <v>19</v>
@@ -2594,13 +2661,13 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AQ12" t="n">
         <v>26</v>
@@ -2627,19 +2694,19 @@
         <v>11</v>
       </c>
       <c r="AY12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ12" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BA12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BB12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BC12" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-30-2014-15</t>
+          <t>2015-03-30</t>
         </is>
       </c>
     </row>
@@ -2746,16 +2813,16 @@
         <v>-0.3</v>
       </c>
       <c r="AD13" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE13" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AF13" t="n">
         <v>19</v>
       </c>
       <c r="AG13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH13" t="n">
         <v>19</v>
@@ -2770,7 +2837,7 @@
         <v>23</v>
       </c>
       <c r="AL13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM13" t="n">
         <v>18</v>
@@ -2785,10 +2852,10 @@
         <v>18</v>
       </c>
       <c r="AQ13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS13" t="n">
         <v>5</v>
@@ -2806,7 +2873,7 @@
         <v>28</v>
       </c>
       <c r="AX13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY13" t="n">
         <v>16</v>
@@ -2815,13 +2882,13 @@
         <v>20</v>
       </c>
       <c r="BA13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB13" t="n">
         <v>24</v>
       </c>
       <c r="BC13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-30-2014-15</t>
+          <t>2015-03-30</t>
         </is>
       </c>
     </row>
@@ -2928,10 +2995,10 @@
         <v>6.3</v>
       </c>
       <c r="AD14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE14" t="n">
         <v>5</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>4</v>
       </c>
       <c r="AF14" t="n">
         <v>5</v>
@@ -2940,7 +3007,7 @@
         <v>5</v>
       </c>
       <c r="AH14" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI14" t="n">
         <v>2</v>
@@ -2985,10 +3052,10 @@
         <v>2</v>
       </c>
       <c r="AW14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY14" t="n">
         <v>1</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-30-2014-15</t>
+          <t>2015-03-30</t>
         </is>
       </c>
     </row>
@@ -3035,55 +3102,55 @@
         <v>72</v>
       </c>
       <c r="E15" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F15" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G15" t="n">
-        <v>0.278</v>
+        <v>0.264</v>
       </c>
       <c r="H15" t="n">
-        <v>48.7</v>
+        <v>48.6</v>
       </c>
       <c r="I15" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="J15" t="n">
-        <v>86</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="K15" t="n">
-        <v>0.437</v>
+        <v>0.436</v>
       </c>
       <c r="L15" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="M15" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="N15" t="n">
-        <v>0.344</v>
+        <v>0.342</v>
       </c>
       <c r="O15" t="n">
-        <v>17.3</v>
+        <v>17.5</v>
       </c>
       <c r="P15" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.745</v>
+        <v>0.746</v>
       </c>
       <c r="R15" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="S15" t="n">
-        <v>32.6</v>
+        <v>32.5</v>
       </c>
       <c r="T15" t="n">
-        <v>44.2</v>
+        <v>44.1</v>
       </c>
       <c r="U15" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="V15" t="n">
         <v>13.2</v>
@@ -3092,7 +3159,7 @@
         <v>7.3</v>
       </c>
       <c r="X15" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y15" t="n">
         <v>4.8</v>
@@ -3101,16 +3168,16 @@
         <v>21.2</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AB15" t="n">
-        <v>99.09999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="AC15" t="n">
-        <v>-5.6</v>
+        <v>-5.9</v>
       </c>
       <c r="AD15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3122,25 +3189,25 @@
         <v>27</v>
       </c>
       <c r="AH15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AI15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ15" t="n">
         <v>7</v>
       </c>
       <c r="AK15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AM15" t="n">
         <v>24</v>
       </c>
       <c r="AN15" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AO15" t="n">
         <v>12</v>
@@ -3152,10 +3219,10 @@
         <v>21</v>
       </c>
       <c r="AR15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS15" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AT15" t="n">
         <v>11</v>
@@ -3170,13 +3237,13 @@
         <v>21</v>
       </c>
       <c r="AX15" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AY15" t="n">
         <v>15</v>
       </c>
       <c r="AZ15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA15" t="n">
         <v>24</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-30-2014-15</t>
+          <t>2015-03-30</t>
         </is>
       </c>
     </row>
@@ -3214,16 +3281,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E16" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F16" t="n">
         <v>24</v>
       </c>
       <c r="G16" t="n">
-        <v>0.68</v>
+        <v>0.676</v>
       </c>
       <c r="H16" t="n">
         <v>48.6</v>
@@ -3238,16 +3305,16 @@
         <v>0.458</v>
       </c>
       <c r="L16" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="M16" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="N16" t="n">
         <v>0.346</v>
       </c>
       <c r="O16" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="P16" t="n">
         <v>22.9</v>
@@ -3274,7 +3341,7 @@
         <v>8.6</v>
       </c>
       <c r="X16" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Y16" t="n">
         <v>5.3</v>
@@ -3289,19 +3356,19 @@
         <v>98.59999999999999</v>
       </c>
       <c r="AC16" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="AD16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
       </c>
       <c r="AF16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH16" t="n">
         <v>6</v>
@@ -3310,7 +3377,7 @@
         <v>13</v>
       </c>
       <c r="AJ16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK16" t="n">
         <v>9</v>
@@ -3322,10 +3389,10 @@
         <v>29</v>
       </c>
       <c r="AN16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP16" t="n">
         <v>15</v>
@@ -3334,7 +3401,7 @@
         <v>7</v>
       </c>
       <c r="AR16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS16" t="n">
         <v>17</v>
@@ -3352,22 +3419,22 @@
         <v>7</v>
       </c>
       <c r="AX16" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AY16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BB16" t="n">
         <v>18</v>
       </c>
       <c r="BC16" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-30-2014-15</t>
+          <t>2015-03-30</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>-2.1</v>
       </c>
       <c r="AD17" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE17" t="n">
         <v>17</v>
@@ -3528,7 +3595,7 @@
         <v>28</v>
       </c>
       <c r="AV17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW17" t="n">
         <v>10</v>
@@ -3546,7 +3613,7 @@
         <v>8</v>
       </c>
       <c r="BB17" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BC17" t="n">
         <v>21</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-30-2014-15</t>
+          <t>2015-03-30</t>
         </is>
       </c>
     </row>
@@ -3578,25 +3645,25 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E18" t="n">
         <v>36</v>
       </c>
       <c r="F18" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G18" t="n">
-        <v>0.486</v>
+        <v>0.493</v>
       </c>
       <c r="H18" t="n">
         <v>48.7</v>
       </c>
       <c r="I18" t="n">
-        <v>37.3</v>
+        <v>37.4</v>
       </c>
       <c r="J18" t="n">
-        <v>81.7</v>
+        <v>81.8</v>
       </c>
       <c r="K18" t="n">
         <v>0.457</v>
@@ -3608,7 +3675,7 @@
         <v>18.3</v>
       </c>
       <c r="N18" t="n">
-        <v>0.365</v>
+        <v>0.366</v>
       </c>
       <c r="O18" t="n">
         <v>16.4</v>
@@ -3617,13 +3684,13 @@
         <v>21.3</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.767</v>
+        <v>0.768</v>
       </c>
       <c r="R18" t="n">
         <v>10.6</v>
       </c>
       <c r="S18" t="n">
-        <v>31.4</v>
+        <v>31.5</v>
       </c>
       <c r="T18" t="n">
         <v>42.1</v>
@@ -3635,13 +3702,13 @@
         <v>16.8</v>
       </c>
       <c r="W18" t="n">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="X18" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Y18" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Z18" t="n">
         <v>22.2</v>
@@ -3650,13 +3717,13 @@
         <v>20.1</v>
       </c>
       <c r="AB18" t="n">
-        <v>97.7</v>
+        <v>97.8</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AD18" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AE18" t="n">
         <v>16</v>
@@ -3668,7 +3735,7 @@
         <v>16</v>
       </c>
       <c r="AH18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI18" t="n">
         <v>18</v>
@@ -3686,7 +3753,7 @@
         <v>26</v>
       </c>
       <c r="AN18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO18" t="n">
         <v>22</v>
@@ -3704,7 +3771,7 @@
         <v>25</v>
       </c>
       <c r="AT18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AU18" t="n">
         <v>7</v>
@@ -3713,16 +3780,16 @@
         <v>28</v>
       </c>
       <c r="AW18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY18" t="n">
         <v>14</v>
       </c>
       <c r="AZ18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BA18" t="n">
         <v>18</v>
@@ -3731,7 +3798,7 @@
         <v>22</v>
       </c>
       <c r="BC18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-30-2014-15</t>
+          <t>2015-03-30</t>
         </is>
       </c>
     </row>
@@ -3760,37 +3827,37 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
       </c>
       <c r="F19" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G19" t="n">
-        <v>0.216</v>
+        <v>0.219</v>
       </c>
       <c r="H19" t="n">
         <v>48.3</v>
       </c>
       <c r="I19" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="J19" t="n">
-        <v>83.59999999999999</v>
+        <v>83.7</v>
       </c>
       <c r="K19" t="n">
-        <v>0.437</v>
+        <v>0.438</v>
       </c>
       <c r="L19" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="M19" t="n">
         <v>14.8</v>
       </c>
       <c r="N19" t="n">
-        <v>0.335</v>
+        <v>0.334</v>
       </c>
       <c r="O19" t="n">
         <v>19.7</v>
@@ -3808,7 +3875,7 @@
         <v>29.5</v>
       </c>
       <c r="T19" t="n">
-        <v>41.4</v>
+        <v>41.5</v>
       </c>
       <c r="U19" t="n">
         <v>21.7</v>
@@ -3829,16 +3896,16 @@
         <v>19.1</v>
       </c>
       <c r="AA19" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AB19" t="n">
-        <v>97.7</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="AC19" t="n">
-        <v>-8.199999999999999</v>
+        <v>-8.1</v>
       </c>
       <c r="AD19" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AE19" t="n">
         <v>29</v>
@@ -3850,16 +3917,16 @@
         <v>29</v>
       </c>
       <c r="AH19" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI19" t="n">
         <v>23</v>
       </c>
       <c r="AJ19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL19" t="n">
         <v>30</v>
@@ -3877,7 +3944,7 @@
         <v>2</v>
       </c>
       <c r="AQ19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR19" t="n">
         <v>5</v>
@@ -3886,13 +3953,13 @@
         <v>30</v>
       </c>
       <c r="AT19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AU19" t="n">
         <v>15</v>
       </c>
       <c r="AV19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW19" t="n">
         <v>9</v>
@@ -3904,7 +3971,7 @@
         <v>27</v>
       </c>
       <c r="AZ19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA19" t="n">
         <v>4</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-30-2014-15</t>
+          <t>2015-03-30</t>
         </is>
       </c>
     </row>
@@ -3942,67 +4009,67 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E20" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F20" t="n">
         <v>34</v>
       </c>
       <c r="G20" t="n">
-        <v>0.528</v>
+        <v>0.534</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
       </c>
       <c r="I20" t="n">
-        <v>37.8</v>
+        <v>37.9</v>
       </c>
       <c r="J20" t="n">
-        <v>82.5</v>
+        <v>82.7</v>
       </c>
       <c r="K20" t="n">
-        <v>0.459</v>
+        <v>0.458</v>
       </c>
       <c r="L20" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="M20" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="N20" t="n">
-        <v>0.367</v>
+        <v>0.366</v>
       </c>
       <c r="O20" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="P20" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.764</v>
+        <v>0.758</v>
       </c>
       <c r="R20" t="n">
-        <v>11.3</v>
+        <v>11.5</v>
       </c>
       <c r="S20" t="n">
-        <v>32</v>
+        <v>32.1</v>
       </c>
       <c r="T20" t="n">
-        <v>43.4</v>
+        <v>43.6</v>
       </c>
       <c r="U20" t="n">
         <v>22.1</v>
       </c>
       <c r="V20" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="W20" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="X20" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="Y20" t="n">
         <v>5.8</v>
@@ -4011,16 +4078,16 @@
         <v>18.7</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="AB20" t="n">
-        <v>99.3</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="AE20" t="n">
         <v>14</v>
@@ -4032,16 +4099,16 @@
         <v>14</v>
       </c>
       <c r="AH20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI20" t="n">
         <v>11</v>
       </c>
       <c r="AJ20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL20" t="n">
         <v>19</v>
@@ -4050,16 +4117,16 @@
         <v>23</v>
       </c>
       <c r="AN20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP20" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AQ20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AR20" t="n">
         <v>10</v>
@@ -4068,7 +4135,7 @@
         <v>18</v>
       </c>
       <c r="AT20" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU20" t="n">
         <v>10</v>
@@ -4080,7 +4147,7 @@
         <v>25</v>
       </c>
       <c r="AX20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY20" t="n">
         <v>28</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-30-2014-15</t>
+          <t>2015-03-30</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-9.699999999999999</v>
       </c>
       <c r="AD21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE21" t="n">
         <v>30</v>
@@ -4214,7 +4281,7 @@
         <v>30</v>
       </c>
       <c r="AH21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI21" t="n">
         <v>28</v>
@@ -4226,13 +4293,13 @@
         <v>28</v>
       </c>
       <c r="AL21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM21" t="n">
         <v>21</v>
       </c>
       <c r="AN21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO21" t="n">
         <v>29</v>
@@ -4262,7 +4329,7 @@
         <v>23</v>
       </c>
       <c r="AX21" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AY21" t="n">
         <v>6</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-30-2014-15</t>
+          <t>2015-03-30</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>2.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE22" t="n">
         <v>12</v>
@@ -4453,10 +4520,10 @@
         <v>29</v>
       </c>
       <c r="BA22" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC22" t="n">
         <v>12</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-30-2014-15</t>
+          <t>2015-03-30</t>
         </is>
       </c>
     </row>
@@ -4488,34 +4555,34 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E23" t="n">
         <v>22</v>
       </c>
       <c r="F23" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G23" t="n">
-        <v>0.301</v>
+        <v>0.297</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>37.6</v>
+        <v>37.5</v>
       </c>
       <c r="J23" t="n">
-        <v>82.40000000000001</v>
+        <v>82.5</v>
       </c>
       <c r="K23" t="n">
-        <v>0.456</v>
+        <v>0.455</v>
       </c>
       <c r="L23" t="n">
         <v>6.8</v>
       </c>
       <c r="M23" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="N23" t="n">
         <v>0.35</v>
@@ -4524,22 +4591,22 @@
         <v>14.1</v>
       </c>
       <c r="P23" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.73</v>
+        <v>0.731</v>
       </c>
       <c r="R23" t="n">
-        <v>9.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="S23" t="n">
-        <v>31.5</v>
+        <v>31.6</v>
       </c>
       <c r="T23" t="n">
-        <v>41.1</v>
+        <v>41.3</v>
       </c>
       <c r="U23" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="V23" t="n">
         <v>14.9</v>
@@ -4551,22 +4618,22 @@
         <v>3.7</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Z23" t="n">
         <v>21.1</v>
       </c>
       <c r="AA23" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="AB23" t="n">
-        <v>96.09999999999999</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="AC23" t="n">
-        <v>-6</v>
+        <v>-6.2</v>
       </c>
       <c r="AD23" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="AE23" t="n">
         <v>26</v>
@@ -4581,10 +4648,10 @@
         <v>24</v>
       </c>
       <c r="AI23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK23" t="n">
         <v>12</v>
@@ -4611,7 +4678,7 @@
         <v>27</v>
       </c>
       <c r="AS23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT23" t="n">
         <v>27</v>
@@ -4620,16 +4687,16 @@
         <v>22</v>
       </c>
       <c r="AV23" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AW23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX23" t="n">
         <v>29</v>
       </c>
       <c r="AY23" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AZ23" t="n">
         <v>19</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-30-2014-15</t>
+          <t>2015-03-30</t>
         </is>
       </c>
     </row>
@@ -4670,25 +4737,25 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E24" t="n">
         <v>18</v>
       </c>
       <c r="F24" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G24" t="n">
-        <v>0.24</v>
+        <v>0.243</v>
       </c>
       <c r="H24" t="n">
         <v>48.3</v>
       </c>
       <c r="I24" t="n">
-        <v>33.7</v>
+        <v>33.6</v>
       </c>
       <c r="J24" t="n">
-        <v>82.3</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K24" t="n">
         <v>0.409</v>
@@ -4703,25 +4770,25 @@
         <v>0.323</v>
       </c>
       <c r="O24" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="P24" t="n">
-        <v>23.8</v>
+        <v>23.6</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.669</v>
+        <v>0.671</v>
       </c>
       <c r="R24" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="S24" t="n">
         <v>31.4</v>
       </c>
       <c r="T24" t="n">
-        <v>43.1</v>
+        <v>43</v>
       </c>
       <c r="U24" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="V24" t="n">
         <v>17.9</v>
@@ -4730,25 +4797,25 @@
         <v>9.800000000000001</v>
       </c>
       <c r="X24" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Y24" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Z24" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="AA24" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AB24" t="n">
-        <v>91.59999999999999</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="AC24" t="n">
-        <v>-8.800000000000001</v>
+        <v>-8.9</v>
       </c>
       <c r="AD24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE24" t="n">
         <v>28</v>
@@ -4760,7 +4827,7 @@
         <v>28</v>
       </c>
       <c r="AH24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI24" t="n">
         <v>30</v>
@@ -4781,7 +4848,7 @@
         <v>29</v>
       </c>
       <c r="AO24" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AP24" t="n">
         <v>11</v>
@@ -4790,7 +4857,7 @@
         <v>30</v>
       </c>
       <c r="AR24" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AS24" t="n">
         <v>26</v>
@@ -4799,7 +4866,7 @@
         <v>18</v>
       </c>
       <c r="AU24" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AV24" t="n">
         <v>30</v>
@@ -4808,16 +4875,16 @@
         <v>1</v>
       </c>
       <c r="AX24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY24" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ24" t="n">
         <v>24</v>
       </c>
       <c r="BA24" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BB24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-30-2014-15</t>
+          <t>2015-03-30</t>
         </is>
       </c>
     </row>
@@ -4852,22 +4919,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E25" t="n">
         <v>38</v>
       </c>
       <c r="F25" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G25" t="n">
-        <v>0.507</v>
+        <v>0.514</v>
       </c>
       <c r="H25" t="n">
         <v>48.5</v>
       </c>
       <c r="I25" t="n">
-        <v>39.1</v>
+        <v>39.2</v>
       </c>
       <c r="J25" t="n">
         <v>86.2</v>
@@ -4876,34 +4943,34 @@
         <v>0.454</v>
       </c>
       <c r="L25" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="M25" t="n">
-        <v>25.4</v>
+        <v>25.5</v>
       </c>
       <c r="N25" t="n">
-        <v>0.344</v>
+        <v>0.345</v>
       </c>
       <c r="O25" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="P25" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.763</v>
+        <v>0.764</v>
       </c>
       <c r="R25" t="n">
         <v>11.1</v>
       </c>
       <c r="S25" t="n">
-        <v>32.4</v>
+        <v>32.5</v>
       </c>
       <c r="T25" t="n">
-        <v>43.5</v>
+        <v>43.6</v>
       </c>
       <c r="U25" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="V25" t="n">
         <v>15.3</v>
@@ -4912,28 +4979,28 @@
         <v>8.699999999999999</v>
       </c>
       <c r="X25" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y25" t="n">
         <v>4</v>
       </c>
       <c r="Z25" t="n">
-        <v>21.5</v>
+        <v>21.7</v>
       </c>
       <c r="AA25" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AB25" t="n">
-        <v>103.5</v>
+        <v>103.8</v>
       </c>
       <c r="AC25" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AD25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF25" t="n">
         <v>15</v>
@@ -4942,7 +5009,7 @@
         <v>15</v>
       </c>
       <c r="AH25" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI25" t="n">
         <v>4</v>
@@ -4954,31 +5021,31 @@
         <v>13</v>
       </c>
       <c r="AL25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AM25" t="n">
         <v>9</v>
       </c>
       <c r="AN25" t="n">
+        <v>16</v>
+      </c>
+      <c r="AO25" t="n">
         <v>18</v>
       </c>
-      <c r="AO25" t="n">
-        <v>20</v>
-      </c>
       <c r="AP25" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR25" t="n">
+        <v>12</v>
+      </c>
+      <c r="AS25" t="n">
         <v>13</v>
       </c>
-      <c r="AS25" t="n">
-        <v>14</v>
-      </c>
       <c r="AT25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU25" t="n">
         <v>27</v>
@@ -4999,13 +5066,13 @@
         <v>25</v>
       </c>
       <c r="BA25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BB25" t="n">
         <v>5</v>
       </c>
       <c r="BC25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-30-2014-15</t>
+          <t>2015-03-30</t>
         </is>
       </c>
     </row>
@@ -5034,52 +5101,52 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E26" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F26" t="n">
         <v>25</v>
       </c>
       <c r="G26" t="n">
-        <v>0.658</v>
+        <v>0.653</v>
       </c>
       <c r="H26" t="n">
         <v>48.5</v>
       </c>
       <c r="I26" t="n">
-        <v>38.5</v>
+        <v>38.4</v>
       </c>
       <c r="J26" t="n">
         <v>85.7</v>
       </c>
       <c r="K26" t="n">
-        <v>0.449</v>
+        <v>0.448</v>
       </c>
       <c r="L26" t="n">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="M26" t="n">
         <v>27.4</v>
       </c>
       <c r="N26" t="n">
-        <v>0.363</v>
+        <v>0.362</v>
       </c>
       <c r="O26" t="n">
         <v>15.8</v>
       </c>
       <c r="P26" t="n">
-        <v>19.7</v>
+        <v>19.9</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.798</v>
+        <v>0.797</v>
       </c>
       <c r="R26" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="S26" t="n">
-        <v>35.2</v>
+        <v>35.1</v>
       </c>
       <c r="T26" t="n">
         <v>45.9</v>
@@ -5100,22 +5167,22 @@
         <v>3.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="AA26" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="AB26" t="n">
-        <v>102.6</v>
+        <v>102.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="AD26" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AE26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF26" t="n">
         <v>5</v>
@@ -5142,10 +5209,10 @@
         <v>2</v>
       </c>
       <c r="AN26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO26" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP26" t="n">
         <v>28</v>
@@ -5163,7 +5230,7 @@
         <v>2</v>
       </c>
       <c r="AU26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV26" t="n">
         <v>9</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-30-2014-15</t>
+          <t>2015-03-30</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E27" t="n">
         <v>26</v>
       </c>
       <c r="F27" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G27" t="n">
-        <v>0.356</v>
+        <v>0.361</v>
       </c>
       <c r="H27" t="n">
         <v>48.5</v>
@@ -5237,7 +5304,7 @@
         <v>80.8</v>
       </c>
       <c r="K27" t="n">
-        <v>0.45</v>
+        <v>0.451</v>
       </c>
       <c r="L27" t="n">
         <v>5.5</v>
@@ -5246,28 +5313,28 @@
         <v>16.3</v>
       </c>
       <c r="N27" t="n">
-        <v>0.337</v>
+        <v>0.338</v>
       </c>
       <c r="O27" t="n">
-        <v>22.6</v>
+        <v>22.8</v>
       </c>
       <c r="P27" t="n">
-        <v>29.1</v>
+        <v>29.3</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.777</v>
+        <v>0.778</v>
       </c>
       <c r="R27" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="S27" t="n">
-        <v>33.3</v>
+        <v>33.4</v>
       </c>
       <c r="T27" t="n">
         <v>44.4</v>
       </c>
       <c r="U27" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="V27" t="n">
         <v>16.5</v>
@@ -5285,22 +5352,22 @@
         <v>20.8</v>
       </c>
       <c r="AA27" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="AB27" t="n">
-        <v>100.9</v>
+        <v>101.1</v>
       </c>
       <c r="AC27" t="n">
-        <v>-4</v>
+        <v>-3.8</v>
       </c>
       <c r="AD27" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AE27" t="n">
         <v>25</v>
       </c>
       <c r="AF27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG27" t="n">
         <v>25</v>
@@ -5333,7 +5400,7 @@
         <v>1</v>
       </c>
       <c r="AQ27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AR27" t="n">
         <v>14</v>
@@ -5357,7 +5424,7 @@
         <v>28</v>
       </c>
       <c r="AY27" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AZ27" t="n">
         <v>16</v>
@@ -5366,7 +5433,7 @@
         <v>1</v>
       </c>
       <c r="BB27" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BC27" t="n">
         <v>25</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-30-2014-15</t>
+          <t>2015-03-30</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E28" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F28" t="n">
         <v>26</v>
       </c>
       <c r="G28" t="n">
-        <v>0.639</v>
+        <v>0.644</v>
       </c>
       <c r="H28" t="n">
         <v>48.8</v>
@@ -5416,22 +5483,22 @@
         <v>38.8</v>
       </c>
       <c r="J28" t="n">
-        <v>83.90000000000001</v>
+        <v>83.7</v>
       </c>
       <c r="K28" t="n">
-        <v>0.462</v>
+        <v>0.463</v>
       </c>
       <c r="L28" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M28" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="N28" t="n">
-        <v>0.362</v>
+        <v>0.365</v>
       </c>
       <c r="O28" t="n">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="P28" t="n">
         <v>21.8</v>
@@ -5440,10 +5507,10 @@
         <v>0.777</v>
       </c>
       <c r="R28" t="n">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S28" t="n">
-        <v>33.9</v>
+        <v>33.8</v>
       </c>
       <c r="T28" t="n">
         <v>43.7</v>
@@ -5452,19 +5519,19 @@
         <v>24.3</v>
       </c>
       <c r="V28" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="W28" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="X28" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y28" t="n">
         <v>4.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="AA28" t="n">
         <v>19.9</v>
@@ -5473,19 +5540,19 @@
         <v>102.7</v>
       </c>
       <c r="AC28" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="AD28" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="AE28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF28" t="n">
         <v>7</v>
       </c>
       <c r="AG28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH28" t="n">
         <v>1</v>
@@ -5494,7 +5561,7 @@
         <v>5</v>
       </c>
       <c r="AJ28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK28" t="n">
         <v>4</v>
@@ -5506,34 +5573,34 @@
         <v>14</v>
       </c>
       <c r="AN28" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AO28" t="n">
         <v>14</v>
       </c>
       <c r="AP28" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AQ28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR28" t="n">
         <v>26</v>
       </c>
       <c r="AS28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT28" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU28" t="n">
         <v>4</v>
       </c>
       <c r="AV28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX28" t="n">
         <v>8</v>
@@ -5542,7 +5609,7 @@
         <v>9</v>
       </c>
       <c r="AZ28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA28" t="n">
         <v>20</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-30-2014-15</t>
+          <t>2015-03-30</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E29" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F29" t="n">
         <v>30</v>
       </c>
       <c r="G29" t="n">
-        <v>0.595</v>
+        <v>0.589</v>
       </c>
       <c r="H29" t="n">
         <v>48.4</v>
@@ -5613,7 +5680,7 @@
         <v>0.352</v>
       </c>
       <c r="O29" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="P29" t="n">
         <v>24.8</v>
@@ -5628,7 +5695,7 @@
         <v>30.7</v>
       </c>
       <c r="T29" t="n">
-        <v>41.5</v>
+        <v>41.4</v>
       </c>
       <c r="U29" t="n">
         <v>20.8</v>
@@ -5640,25 +5707,25 @@
         <v>7.5</v>
       </c>
       <c r="X29" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Y29" t="n">
         <v>5.1</v>
       </c>
       <c r="Z29" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="AA29" t="n">
         <v>20.5</v>
       </c>
       <c r="AB29" t="n">
-        <v>104.1</v>
+        <v>104.2</v>
       </c>
       <c r="AC29" t="n">
         <v>2.9</v>
       </c>
       <c r="AD29" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AE29" t="n">
         <v>11</v>
@@ -5670,7 +5737,7 @@
         <v>11</v>
       </c>
       <c r="AH29" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AI29" t="n">
         <v>10</v>
@@ -5682,7 +5749,7 @@
         <v>14</v>
       </c>
       <c r="AL29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AM29" t="n">
         <v>11</v>
@@ -5694,7 +5761,7 @@
         <v>4</v>
       </c>
       <c r="AP29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ29" t="n">
         <v>2</v>
@@ -5706,7 +5773,7 @@
         <v>27</v>
       </c>
       <c r="AT29" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AU29" t="n">
         <v>21</v>
@@ -5727,13 +5794,13 @@
         <v>17</v>
       </c>
       <c r="BA29" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BB29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-30-2014-15</t>
+          <t>2015-03-30</t>
         </is>
       </c>
     </row>
@@ -5762,52 +5829,52 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E30" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F30" t="n">
         <v>41</v>
       </c>
       <c r="G30" t="n">
-        <v>0.446</v>
+        <v>0.438</v>
       </c>
       <c r="H30" t="n">
         <v>48.1</v>
       </c>
       <c r="I30" t="n">
-        <v>35.3</v>
+        <v>35.2</v>
       </c>
       <c r="J30" t="n">
         <v>79</v>
       </c>
       <c r="K30" t="n">
-        <v>0.447</v>
+        <v>0.446</v>
       </c>
       <c r="L30" t="n">
         <v>7.3</v>
       </c>
       <c r="M30" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="N30" t="n">
-        <v>0.34</v>
+        <v>0.341</v>
       </c>
       <c r="O30" t="n">
         <v>16.9</v>
       </c>
       <c r="P30" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.723</v>
+        <v>0.721</v>
       </c>
       <c r="R30" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="S30" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="T30" t="n">
         <v>43.7</v>
@@ -5825,22 +5892,22 @@
         <v>6</v>
       </c>
       <c r="Y30" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Z30" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="AA30" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AB30" t="n">
-        <v>94.8</v>
+        <v>94.7</v>
       </c>
       <c r="AC30" t="n">
-        <v>-0.1</v>
+        <v>-0.4</v>
       </c>
       <c r="AD30" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AE30" t="n">
         <v>18</v>
@@ -5849,7 +5916,7 @@
         <v>19</v>
       </c>
       <c r="AG30" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH30" t="n">
         <v>30</v>
@@ -5873,7 +5940,7 @@
         <v>21</v>
       </c>
       <c r="AO30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP30" t="n">
         <v>12</v>
@@ -5888,7 +5955,7 @@
         <v>22</v>
       </c>
       <c r="AT30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU30" t="n">
         <v>30</v>
@@ -5897,25 +5964,25 @@
         <v>24</v>
       </c>
       <c r="AW30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA30" t="n">
         <v>23</v>
       </c>
       <c r="BB30" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BC30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-30-2014-15</t>
+          <t>2015-03-30</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>0.4</v>
       </c>
       <c r="AD31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE31" t="n">
         <v>13</v>
@@ -6058,7 +6125,7 @@
         <v>23</v>
       </c>
       <c r="AP31" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ31" t="n">
         <v>22</v>
@@ -6067,7 +6134,7 @@
         <v>20</v>
       </c>
       <c r="AS31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT31" t="n">
         <v>10</v>
@@ -6076,13 +6143,13 @@
         <v>6</v>
       </c>
       <c r="AV31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW31" t="n">
         <v>20</v>
       </c>
       <c r="AX31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY31" t="n">
         <v>8</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-30-2014-15</t>
+          <t>2015-03-30</t>
         </is>
       </c>
     </row>
